--- a/results/mp/tinybert/toy-spam/confidence/168/stop-words-topk-masking-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/168/stop-words-topk-masking-0.35/avg_0.004_scores.xlsx
@@ -52,12 +52,12 @@
     <t>disappointed</t>
   </si>
   <si>
+    <t>waste</t>
+  </si>
+  <si>
     <t>however</t>
   </si>
   <si>
-    <t>waste</t>
-  </si>
-  <si>
     <t>broke</t>
   </si>
   <si>
@@ -70,75 +70,69 @@
     <t>small</t>
   </si>
   <si>
-    <t>di</t>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>cheap</t>
   </si>
   <si>
     <t>apart</t>
   </si>
   <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
     <t>ok</t>
   </si>
   <si>
+    <t>difficult</t>
+  </si>
+  <si>
     <t>thought</t>
   </si>
   <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>bit</t>
+    <t>size</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>hard</t>
   </si>
   <si>
-    <t>size</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>item</t>
+    <t>product</t>
   </si>
   <si>
     <t>work</t>
   </si>
   <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
+    <t>little</t>
+  </si>
+  <si>
     <t>use</t>
   </si>
   <si>
-    <t>little</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
-    <t>much</t>
-  </si>
-  <si>
     <t>one</t>
   </si>
   <si>
@@ -154,61 +148,67 @@
     <t>awesome</t>
   </si>
   <si>
+    <t>excellent</t>
+  </si>
+  <si>
     <t>favorite</t>
   </si>
   <si>
-    <t>excellent</t>
-  </si>
-  <si>
     <t>classic</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>loves</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>loved</t>
   </si>
   <si>
-    <t>perfect</t>
-  </si>
-  <si>
     <t>friends</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>learn</t>
   </si>
   <si>
+    <t>every</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>every</t>
-  </si>
-  <si>
     <t>christmas</t>
   </si>
   <si>
+    <t>enjoy</t>
+  </si>
+  <si>
     <t>fun</t>
   </si>
   <si>
-    <t>enjoy</t>
+    <t>easy</t>
   </si>
   <si>
     <t>game</t>
   </si>
   <si>
-    <t>easy</t>
+    <t>family</t>
+  </si>
+  <si>
+    <t>year</t>
   </si>
   <si>
     <t>play</t>
@@ -572,7 +572,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q37"/>
+  <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -580,7 +580,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J1" t="s">
         <v>66</v>
@@ -662,16 +662,16 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K3">
-        <v>0.875</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L3">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M3">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -691,13 +691,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8181818181818182</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C4">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D4">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -709,31 +709,31 @@
         <v>0</v>
       </c>
       <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K4">
+        <v>0.8769230769230769</v>
+      </c>
+      <c r="L4">
+        <v>57</v>
+      </c>
+      <c r="M4">
+        <v>57</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4">
         <v>8</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K4">
-        <v>0.8461538461538461</v>
-      </c>
-      <c r="L4">
-        <v>55</v>
-      </c>
-      <c r="M4">
-        <v>55</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -741,13 +741,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7464788732394366</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="C5">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D5">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -759,19 +759,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K5">
-        <v>0.8279569892473119</v>
+        <v>0.78125</v>
       </c>
       <c r="L5">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="M5">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -791,13 +791,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7258064516129032</v>
+        <v>0.7204301075268817</v>
       </c>
       <c r="C6">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D6">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -809,19 +809,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K6">
-        <v>0.78125</v>
+        <v>0.7526881720430108</v>
       </c>
       <c r="L6">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="M6">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -841,13 +841,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.671875</v>
+        <v>0.6486486486486487</v>
       </c>
       <c r="C7">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="D7">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -859,19 +859,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K7">
-        <v>0.7169811320754716</v>
+        <v>0.6792452830188679</v>
       </c>
       <c r="L7">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M7">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -891,13 +891,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6486486486486487</v>
+        <v>0.640625</v>
       </c>
       <c r="C8">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="D8">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -909,19 +909,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K8">
-        <v>0.5942028985507246</v>
+        <v>0.5710186513629842</v>
       </c>
       <c r="L8">
-        <v>41</v>
+        <v>398</v>
       </c>
       <c r="M8">
-        <v>41</v>
+        <v>398</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -933,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>28</v>
+        <v>299</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -941,13 +941,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6310679611650486</v>
+        <v>0.6019417475728155</v>
       </c>
       <c r="C9">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D9">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -959,19 +959,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K9">
-        <v>0.5810616929698709</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="L9">
-        <v>405</v>
+        <v>39</v>
       </c>
       <c r="M9">
-        <v>405</v>
+        <v>39</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -983,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>292</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1012,16 +1012,16 @@
         <v>23</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K10">
-        <v>0.5477178423236515</v>
+        <v>0.5228215767634855</v>
       </c>
       <c r="L10">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="M10">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1033,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>218</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1041,13 +1041,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5714285714285714</v>
+        <v>0.5798319327731093</v>
       </c>
       <c r="C11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K11">
-        <v>0.4639344262295082</v>
+        <v>0.4741591468416735</v>
       </c>
       <c r="L11">
-        <v>566</v>
+        <v>578</v>
       </c>
       <c r="M11">
-        <v>566</v>
+        <v>579</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1080,10 +1080,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11">
-        <v>654</v>
+        <v>641</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1091,13 +1091,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4985507246376812</v>
+        <v>0.5043478260869565</v>
       </c>
       <c r="C12">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D12">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1109,19 +1109,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K12">
-        <v>0.3669724770642202</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="L12">
-        <v>120</v>
+        <v>44</v>
       </c>
       <c r="M12">
-        <v>120</v>
+        <v>44</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>207</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1141,13 +1141,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.453125</v>
+        <v>0.4819277108433735</v>
       </c>
       <c r="C13">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D13">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1159,19 +1159,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K13">
-        <v>0.3493975903614458</v>
+        <v>0.3554216867469879</v>
       </c>
       <c r="L13">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M13">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1191,13 +1191,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4526315789473684</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="C14">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D14">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1209,19 +1209,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K14">
-        <v>0.3492063492063492</v>
+        <v>0.3547400611620795</v>
       </c>
       <c r="L14">
-        <v>66</v>
+        <v>116</v>
       </c>
       <c r="M14">
-        <v>66</v>
+        <v>116</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>123</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1241,13 +1241,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4457831325301205</v>
+        <v>0.4566929133858268</v>
       </c>
       <c r="C15">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="D15">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1259,19 +1259,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K15">
-        <v>0.3416666666666667</v>
+        <v>0.3492063492063492</v>
       </c>
       <c r="L15">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="M15">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1283,7 +1283,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>79</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1291,37 +1291,37 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4330708661417323</v>
+        <v>0.4312796208530806</v>
       </c>
       <c r="C16">
+        <v>91</v>
+      </c>
+      <c r="D16">
+        <v>91</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>120</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D16">
-        <v>55</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>72</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="K16">
-        <v>0.265625</v>
+        <v>0.296875</v>
       </c>
       <c r="L16">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M16">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1341,13 +1341,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4075829383886256</v>
+        <v>0.3789473684210526</v>
       </c>
       <c r="C17">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="D17">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1359,19 +1359,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>125</v>
+        <v>59</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K17">
-        <v>0.2377622377622378</v>
+        <v>0.264</v>
       </c>
       <c r="L17">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M17">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1383,7 +1383,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>109</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1391,13 +1391,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.390625</v>
+        <v>0.3671875</v>
       </c>
       <c r="C18">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D18">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1409,19 +1409,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K18">
-        <v>0.232</v>
+        <v>0.2517482517482518</v>
       </c>
       <c r="L18">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="M18">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1433,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>96</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1441,13 +1441,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3564356435643564</v>
+        <v>0.3370786516853932</v>
       </c>
       <c r="C19">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="D19">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1459,19 +1459,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>130</v>
+        <v>59</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K19">
-        <v>0.2008032128514056</v>
+        <v>0.1927710843373494</v>
       </c>
       <c r="L19">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M19">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1483,7 +1483,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1491,13 +1491,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.3370786516853932</v>
+        <v>0.2871287128712871</v>
       </c>
       <c r="C20">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="D20">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1509,19 +1509,19 @@
         <v>0</v>
       </c>
       <c r="H20">
+        <v>144</v>
+      </c>
+      <c r="J20" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="J20" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="K20">
-        <v>0.1849255039439089</v>
+        <v>0.1881720430107527</v>
       </c>
       <c r="L20">
-        <v>211</v>
+        <v>35</v>
       </c>
       <c r="M20">
-        <v>211</v>
+        <v>35</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>930</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1541,13 +1541,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3061224489795918</v>
+        <v>0.2628865979381443</v>
       </c>
       <c r="C21">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="D21">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1559,19 +1559,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>68</v>
+        <v>143</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K21">
-        <v>0.1559139784946237</v>
+        <v>0.182296231375986</v>
       </c>
       <c r="L21">
-        <v>29</v>
+        <v>208</v>
       </c>
       <c r="M21">
-        <v>29</v>
+        <v>208</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1583,7 +1583,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>157</v>
+        <v>933</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1591,13 +1591,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.24</v>
+        <v>0.2318840579710145</v>
       </c>
       <c r="C22">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="D22">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1609,31 +1609,31 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>152</v>
+        <v>212</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K22">
-        <v>0.1168831168831169</v>
+        <v>0.1149732620320856</v>
       </c>
       <c r="L22">
-        <v>180</v>
+        <v>43</v>
       </c>
       <c r="M22">
-        <v>181</v>
+        <v>43</v>
       </c>
       <c r="N22">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>1360</v>
+        <v>331</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1641,13 +1641,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.2164948453608248</v>
+        <v>0.2151898734177215</v>
       </c>
       <c r="C23">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="D23">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1659,31 +1659,31 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>152</v>
+        <v>248</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K23">
-        <v>0.08823529411764706</v>
+        <v>0.1077922077922078</v>
       </c>
       <c r="L23">
-        <v>33</v>
+        <v>166</v>
       </c>
       <c r="M23">
-        <v>33</v>
+        <v>167</v>
       </c>
       <c r="N23">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23">
-        <v>341</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1691,13 +1691,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.2120253164556962</v>
+        <v>0.1884272997032641</v>
       </c>
       <c r="C24">
-        <v>67</v>
+        <v>127</v>
       </c>
       <c r="D24">
-        <v>67</v>
+        <v>127</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1709,31 +1709,31 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>249</v>
+        <v>547</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K24">
-        <v>0.05866666666666667</v>
+        <v>0.09192200557103064</v>
       </c>
       <c r="L24">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="M24">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="N24">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>706</v>
+        <v>326</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1741,25 +1741,49 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.1956521739130435</v>
+        <v>0.1844380403458213</v>
       </c>
       <c r="C25">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D25">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25">
-        <v>222</v>
+        <v>283</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K25">
+        <v>0.05823293172690763</v>
+      </c>
+      <c r="L25">
+        <v>29</v>
+      </c>
+      <c r="M25">
+        <v>31</v>
+      </c>
+      <c r="N25">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O25">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P25" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <v>469</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1767,13 +1791,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.1930379746835443</v>
+        <v>0.1728971962616822</v>
       </c>
       <c r="C26">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="D26">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1785,7 +1809,31 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>255</v>
+        <v>177</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K26">
+        <v>0.04806408544726302</v>
+      </c>
+      <c r="L26">
+        <v>36</v>
+      </c>
+      <c r="M26">
+        <v>39</v>
+      </c>
+      <c r="N26">
+        <v>0.92</v>
+      </c>
+      <c r="O26">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="P26" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q26">
+        <v>713</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1793,13 +1841,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.1925287356321839</v>
+        <v>0.165</v>
       </c>
       <c r="C27">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="D27">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1811,7 +1859,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>281</v>
+        <v>167</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1819,25 +1867,25 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1916790490341753</v>
+        <v>0.1431718061674009</v>
       </c>
       <c r="C28">
-        <v>129</v>
+        <v>65</v>
       </c>
       <c r="D28">
-        <v>130</v>
+        <v>65</v>
       </c>
       <c r="E28">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>544</v>
+        <v>389</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1845,13 +1893,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.1635514018691589</v>
+        <v>0.1329113924050633</v>
       </c>
       <c r="C29">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D29">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1863,7 +1911,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>179</v>
+        <v>274</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1871,25 +1919,25 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1280353200883002</v>
+        <v>0.1086142322097378</v>
       </c>
       <c r="C30">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="D30">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="E30">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>395</v>
+        <v>238</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1897,25 +1945,25 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.1086142322097378</v>
+        <v>0.1049107142857143</v>
       </c>
       <c r="C31">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="D31">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31">
-        <v>238</v>
+        <v>401</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1923,13 +1971,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.09315068493150686</v>
+        <v>0.08767123287671233</v>
       </c>
       <c r="C32">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D32">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1941,7 +1989,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1949,25 +1997,25 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.08482142857142858</v>
+        <v>0.07933884297520662</v>
       </c>
       <c r="C33">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="D33">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="E33">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="F33">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G33" t="b">
         <v>1</v>
       </c>
       <c r="H33">
-        <v>410</v>
+        <v>557</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1975,25 +2023,25 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.08085808580858085</v>
+        <v>0.06290115532734275</v>
       </c>
       <c r="C34">
         <v>49</v>
       </c>
       <c r="D34">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="E34">
-        <v>0.04</v>
+        <v>0.23</v>
       </c>
       <c r="F34">
-        <v>0.96</v>
+        <v>0.77</v>
       </c>
       <c r="G34" t="b">
         <v>1</v>
       </c>
       <c r="H34">
-        <v>557</v>
+        <v>730</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2001,77 +2049,25 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.07494145199063232</v>
+        <v>0.05343511450381679</v>
       </c>
       <c r="C35">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D35">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E35">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>0.8200000000000001</v>
+        <v>1</v>
       </c>
       <c r="G35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36">
-        <v>0.0586734693877551</v>
-      </c>
-      <c r="C36">
-        <v>46</v>
-      </c>
-      <c r="D36">
-        <v>56</v>
-      </c>
-      <c r="E36">
-        <v>0.18</v>
-      </c>
-      <c r="F36">
-        <v>0.8200000000000001</v>
-      </c>
-      <c r="G36" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37">
-        <v>0.05521472392638037</v>
-      </c>
-      <c r="C37">
-        <v>36</v>
-      </c>
-      <c r="D37">
-        <v>39</v>
-      </c>
-      <c r="E37">
-        <v>0.08</v>
-      </c>
-      <c r="F37">
-        <v>0.92</v>
-      </c>
-      <c r="G37" t="b">
-        <v>1</v>
-      </c>
-      <c r="H37">
-        <v>616</v>
+        <v>620</v>
       </c>
     </row>
   </sheetData>
